--- a/iS3_DataManager/iS3_DataManager/Standard/Construction.xlsx
+++ b/iS3_DataManager/iS3_DataManager/Standard/Construction.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1059F3B-D3B2-4128-B3FE-45832EFF7F84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3045228B-3C88-4FE9-BD08-097990303D1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10275" yWindow="-120" windowWidth="15390" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="274">
   <si>
     <t>Construction</t>
   </si>
@@ -790,6 +790,79 @@
   </si>
   <si>
     <t>施工阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRF_ID</t>
+  </si>
+  <si>
+    <t>GPRF_INTE</t>
+  </si>
+  <si>
+    <t>GPRF_LITH</t>
+  </si>
+  <si>
+    <t>GPRF_MD</t>
+  </si>
+  <si>
+    <t>GPRF_ZPS</t>
+  </si>
+  <si>
+    <t>GPRF_HPS</t>
+  </si>
+  <si>
+    <t>GPRF_PSB</t>
+  </si>
+  <si>
+    <t>GPRF_EM</t>
+  </si>
+  <si>
+    <t>GPRF_FORE</t>
+  </si>
+  <si>
+    <t>GPRF_WEA</t>
+  </si>
+  <si>
+    <t>GPRF_WATE</t>
+  </si>
+  <si>
+    <t>GPRF_STAB</t>
+  </si>
+  <si>
+    <t>GPRF_FAUL</t>
+  </si>
+  <si>
+    <t>GPRF_PSRL</t>
+  </si>
+  <si>
+    <t>GPRF_STRE</t>
+  </si>
+  <si>
+    <t>地球物探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物探ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启示桩号区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,18 +1203,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M175"/>
+  <dimension ref="A2:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1541,7 +1614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1637,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1587,7 +1660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1633,7 +1706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1679,7 +1752,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1798,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1889,7 +1962,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1912,7 +1985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +2008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +2034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +2054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2041,7 +2114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2061,7 +2134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2157,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2217,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2237,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2184,7 +2257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2224,7 +2297,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2317,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2264,7 +2337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2284,7 +2357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2333,7 +2406,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2429,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2379,7 +2452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2402,7 +2475,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2425,7 +2498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2521,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2497,7 +2570,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2593,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +2616,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2609,7 +2682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2629,7 +2702,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2649,7 +2722,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2672,7 +2745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2695,7 +2768,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +2791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2738,7 +2811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2758,7 +2831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +2877,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2827,7 +2900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2850,7 +2923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2873,7 +2946,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +2969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2992,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2942,7 +3015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2962,7 +3035,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +3055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3002,7 +3075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3022,7 +3095,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3115,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3082,7 +3155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3105,7 +3178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3125,7 +3198,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3145,7 +3218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3165,7 +3238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3258,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3205,7 +3278,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3225,7 +3298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3245,7 +3318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3268,7 +3341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3288,7 +3361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3348,7 +3421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3368,7 +3441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3388,7 +3461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3428,7 +3501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3451,7 +3524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3471,7 +3544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3491,7 +3564,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3584,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3604,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -3551,7 +3624,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +3644,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3591,7 +3664,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -3611,7 +3684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -3634,7 +3707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +3727,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -3674,7 +3747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3787,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3734,7 +3807,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +3827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3774,7 +3847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3797,7 +3870,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3837,7 +3910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3860,7 +3933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3880,7 +3953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +3973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3940,7 +4013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3960,7 +4033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3980,7 +4053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4000,7 +4073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4023,7 +4096,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4043,7 +4116,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4063,7 +4136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4083,7 +4156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +4176,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4123,7 +4196,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4143,7 +4216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4163,7 +4236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4183,7 +4256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4209,7 +4282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4305,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4328,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4278,7 +4351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4301,7 +4374,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4324,7 +4397,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4363,6 +4436,9 @@
       <c r="H150" t="b">
         <v>0</v>
       </c>
+      <c r="I150" t="s">
+        <v>4</v>
+      </c>
       <c r="K150" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4383,6 +4459,9 @@
       <c r="H151" t="b">
         <v>0</v>
       </c>
+      <c r="I151" t="s">
+        <v>4</v>
+      </c>
       <c r="K151" t="s">
         <v>5</v>
       </c>
@@ -4390,7 +4469,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4403,6 +4482,9 @@
       <c r="H152" t="b">
         <v>0</v>
       </c>
+      <c r="I152" t="s">
+        <v>4</v>
+      </c>
       <c r="K152" t="s">
         <v>5</v>
       </c>
@@ -4410,7 +4492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4423,6 +4505,9 @@
       <c r="H153" t="b">
         <v>0</v>
       </c>
+      <c r="I153" t="s">
+        <v>4</v>
+      </c>
       <c r="K153" t="s">
         <v>5</v>
       </c>
@@ -4430,7 +4515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -4443,6 +4528,9 @@
       <c r="H154" t="b">
         <v>0</v>
       </c>
+      <c r="I154" t="s">
+        <v>4</v>
+      </c>
       <c r="K154" t="s">
         <v>5</v>
       </c>
@@ -4450,7 +4538,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -4463,6 +4551,9 @@
       <c r="H155" t="b">
         <v>0</v>
       </c>
+      <c r="I155" t="s">
+        <v>4</v>
+      </c>
       <c r="K155" t="s">
         <v>5</v>
       </c>
@@ -4470,7 +4561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -4483,6 +4574,9 @@
       <c r="H156" t="b">
         <v>0</v>
       </c>
+      <c r="I156" t="s">
+        <v>4</v>
+      </c>
       <c r="K156" t="s">
         <v>5</v>
       </c>
@@ -4490,7 +4584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4503,6 +4597,9 @@
       <c r="H157" t="b">
         <v>0</v>
       </c>
+      <c r="I157" t="s">
+        <v>4</v>
+      </c>
       <c r="K157" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4526,6 +4623,9 @@
       <c r="H158" t="b">
         <v>0</v>
       </c>
+      <c r="I158" t="s">
+        <v>4</v>
+      </c>
       <c r="K158" t="s">
         <v>5</v>
       </c>
@@ -4533,7 +4633,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -4546,6 +4646,9 @@
       <c r="H159" t="b">
         <v>0</v>
       </c>
+      <c r="I159" t="s">
+        <v>4</v>
+      </c>
       <c r="K159" t="s">
         <v>5</v>
       </c>
@@ -4553,7 +4656,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4566,6 +4669,9 @@
       <c r="H160" t="b">
         <v>0</v>
       </c>
+      <c r="I160" t="s">
+        <v>4</v>
+      </c>
       <c r="K160" t="s">
         <v>5</v>
       </c>
@@ -4573,7 +4679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4586,6 +4692,9 @@
       <c r="H161" t="b">
         <v>0</v>
       </c>
+      <c r="I161" t="s">
+        <v>4</v>
+      </c>
       <c r="K161" t="s">
         <v>5</v>
       </c>
@@ -4593,7 +4702,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -4606,6 +4715,9 @@
       <c r="H162" t="b">
         <v>0</v>
       </c>
+      <c r="I162" t="s">
+        <v>4</v>
+      </c>
       <c r="K162" t="s">
         <v>5</v>
       </c>
@@ -4613,7 +4725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -4626,6 +4738,9 @@
       <c r="H163" t="b">
         <v>0</v>
       </c>
+      <c r="I163" t="s">
+        <v>4</v>
+      </c>
       <c r="K163" t="s">
         <v>5</v>
       </c>
@@ -4633,7 +4748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -4646,6 +4761,9 @@
       <c r="H164" t="b">
         <v>0</v>
       </c>
+      <c r="I164" t="s">
+        <v>4</v>
+      </c>
       <c r="K164" t="s">
         <v>5</v>
       </c>
@@ -4653,7 +4771,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4666,6 +4784,9 @@
       <c r="H165" t="b">
         <v>0</v>
       </c>
+      <c r="I165" t="s">
+        <v>4</v>
+      </c>
       <c r="K165" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +4794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -4686,6 +4807,9 @@
       <c r="H166" t="b">
         <v>0</v>
       </c>
+      <c r="I166" t="s">
+        <v>4</v>
+      </c>
       <c r="K166" t="s">
         <v>5</v>
       </c>
@@ -4693,7 +4817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -4709,6 +4833,9 @@
       <c r="H167" t="b">
         <v>0</v>
       </c>
+      <c r="I167" t="s">
+        <v>4</v>
+      </c>
       <c r="K167" t="s">
         <v>5</v>
       </c>
@@ -4716,7 +4843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -4729,6 +4856,9 @@
       <c r="H168" t="b">
         <v>0</v>
       </c>
+      <c r="I168" t="s">
+        <v>4</v>
+      </c>
       <c r="K168" t="s">
         <v>5</v>
       </c>
@@ -4736,7 +4866,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K169" t="s">
         <v>5</v>
@@ -4759,7 +4889,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -4772,6 +4902,9 @@
       <c r="H170" t="b">
         <v>0</v>
       </c>
+      <c r="I170" t="s">
+        <v>273</v>
+      </c>
       <c r="K170" t="s">
         <v>5</v>
       </c>
@@ -4779,7 +4912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -4792,6 +4925,9 @@
       <c r="H171" t="b">
         <v>0</v>
       </c>
+      <c r="I171" t="s">
+        <v>273</v>
+      </c>
       <c r="K171" t="s">
         <v>5</v>
       </c>
@@ -4799,7 +4935,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -4812,6 +4948,9 @@
       <c r="H172" t="b">
         <v>0</v>
       </c>
+      <c r="I172" t="s">
+        <v>273</v>
+      </c>
       <c r="K172" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +4958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -4832,6 +4971,9 @@
       <c r="H173" t="b">
         <v>0</v>
       </c>
+      <c r="I173" t="s">
+        <v>273</v>
+      </c>
       <c r="K173" t="s">
         <v>5</v>
       </c>
@@ -4839,7 +4981,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -4852,6 +4994,9 @@
       <c r="H174" t="b">
         <v>0</v>
       </c>
+      <c r="I174" t="s">
+        <v>273</v>
+      </c>
       <c r="K174" t="s">
         <v>5</v>
       </c>
@@ -4859,7 +5004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -4872,11 +5017,315 @@
       <c r="H175" t="b">
         <v>0</v>
       </c>
+      <c r="I175" t="s">
+        <v>273</v>
+      </c>
       <c r="K175" t="s">
         <v>5</v>
       </c>
       <c r="M175" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>268</v>
+      </c>
+      <c r="F176" t="s">
+        <v>267</v>
+      </c>
+      <c r="G176" t="s">
+        <v>252</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" t="s">
+        <v>273</v>
+      </c>
+      <c r="M176" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>268</v>
+      </c>
+      <c r="G177" t="s">
+        <v>3</v>
+      </c>
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>273</v>
+      </c>
+      <c r="M177" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>268</v>
+      </c>
+      <c r="G178" t="s">
+        <v>253</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>273</v>
+      </c>
+      <c r="M178" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>268</v>
+      </c>
+      <c r="G179" t="s">
+        <v>254</v>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>268</v>
+      </c>
+      <c r="G180" t="s">
+        <v>255</v>
+      </c>
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>268</v>
+      </c>
+      <c r="G181" t="s">
+        <v>256</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>268</v>
+      </c>
+      <c r="G182" t="s">
+        <v>257</v>
+      </c>
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>268</v>
+      </c>
+      <c r="G183" t="s">
+        <v>258</v>
+      </c>
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>268</v>
+      </c>
+      <c r="G184" t="s">
+        <v>259</v>
+      </c>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>268</v>
+      </c>
+      <c r="G185" t="s">
+        <v>260</v>
+      </c>
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>268</v>
+      </c>
+      <c r="G186" t="s">
+        <v>261</v>
+      </c>
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>268</v>
+      </c>
+      <c r="G187" t="s">
+        <v>262</v>
+      </c>
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>268</v>
+      </c>
+      <c r="G188" t="s">
+        <v>263</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>268</v>
+      </c>
+      <c r="G189" t="s">
+        <v>264</v>
+      </c>
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>268</v>
+      </c>
+      <c r="G190" t="s">
+        <v>265</v>
+      </c>
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>268</v>
+      </c>
+      <c r="G191" t="s">
+        <v>266</v>
+      </c>
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>268</v>
+      </c>
+      <c r="G192" t="s">
+        <v>25</v>
+      </c>
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
